--- a/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>STON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,244 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E8" s="3">
         <v>73200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>78500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>71500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>83400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>73200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>81600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>77900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>85300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>84000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>86000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>82900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>92500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>80800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>79000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E9" s="3">
         <v>17900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>22500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>19700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>21400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>22700</v>
-      </c>
-      <c r="L9" s="3">
-        <v>19100</v>
       </c>
       <c r="M9" s="3">
         <v>19100</v>
       </c>
       <c r="N9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="O9" s="3">
         <v>21000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>20100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E10" s="3">
         <v>55300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>61200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>53900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>53500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>61800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>56500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>64900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>66900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>61900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>59000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,49 +1025,52 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>24900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8500</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-4600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-5000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>44700</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-400</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1059,58 +1078,64 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E15" s="3">
         <v>2600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>3200</v>
       </c>
       <c r="L15" s="3">
         <v>3200</v>
       </c>
       <c r="M15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N15" s="3">
         <v>3400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E17" s="3">
         <v>104500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>93700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>80800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>84400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>83200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>90300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>81000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>134200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>86400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>88700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>84000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>88700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>84500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>80700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-31300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-15200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-48900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-11600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-10200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-16000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-10200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-47000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E22" s="3">
         <v>12800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>6700</v>
       </c>
       <c r="N22" s="3">
         <v>6700</v>
       </c>
       <c r="O22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="P22" s="3">
         <v>7100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-44200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-28000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-17000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-57100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-42700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-51900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-42200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-51500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-9500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1710,11 +1770,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>3100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1722,11 +1782,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>6500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>11600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>10200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-42200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-20300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-45000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-9500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-42200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-20300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-45000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-9500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E41" s="3">
         <v>43500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>41900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>24400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>18100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>10400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>13700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>12600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>9400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>55800</v>
+      </c>
+      <c r="E43" s="3">
         <v>61500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>59600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>64200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>66800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>71500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>79100</v>
-      </c>
-      <c r="L43" s="3">
-        <v>77100</v>
       </c>
       <c r="M43" s="3">
         <v>77100</v>
       </c>
       <c r="N43" s="3">
+        <v>77100</v>
+      </c>
+      <c r="O43" s="3">
         <v>76400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>77300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>75300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,258 +2436,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>67700</v>
+      </c>
+      <c r="E45" s="3">
         <v>44400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>30300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>33600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>33600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E46" s="3">
         <v>149300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>147700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>110100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>98300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>101600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>110300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>112200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>113000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>119200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>115700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>118000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>118800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>124500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>112500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>936400</v>
+      </c>
+      <c r="E47" s="3">
         <v>940700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>946500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>943500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>906000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>954800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>947600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>945100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>961300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>951900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>950800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>964200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>939700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>937500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>911400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>885300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E48" s="3">
         <v>448900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>452000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>454800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>443600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>447400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>448300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>449000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>447500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>449300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>447500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>452200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>455600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>455400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>448600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>450400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E49" s="3">
         <v>56600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>81700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>84800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>86300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>86800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>87200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>87700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>88100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>134200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>134700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>135300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>135900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>136600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>136700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>136500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E52" s="3">
         <v>135000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>134900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>134300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>135000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>137300</v>
       </c>
       <c r="I52" s="3">
         <v>137300</v>
       </c>
       <c r="J52" s="3">
+        <v>137300</v>
+      </c>
+      <c r="K52" s="3">
         <v>134500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>146200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>144800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>143900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>141600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>137000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>140100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>136900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1719400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1730500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1762800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1727500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1669100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1727900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1730700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1728500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1756100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1799400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1792700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1811300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1787000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1794100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1746200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1716900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E57" s="3">
         <v>61300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>56500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>53200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>43000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>47200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>39600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>35500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>76300</v>
+      </c>
+      <c r="E60" s="3">
         <v>65100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>56000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>61800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>63000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>56000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>61800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>45800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>53400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>44700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>46100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>38900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>43100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>40500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E61" s="3">
         <v>366800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>362200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>350400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>320200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>314100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>320500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>318900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>317700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>306600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>306700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>303600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>314000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>277900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1377600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1345100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1348100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1339300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1293600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1337300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1323600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1301900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1300900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1302600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1295100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1291400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1257400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1275500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1231900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1187300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1821900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1777000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1766300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1756300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1675700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1714400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1682700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1664400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1662600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1646500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1641100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1596700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1632600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1550300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1545200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,58 +3665,64 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>52500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="F70" s="3">
         <v>52900</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>-4200</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>-4000</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>-3800</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-3600</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-3400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-3000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-2500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-2400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-2100</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-1900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-600</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
         <v>-99000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-56300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-24600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>34200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>49300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>94700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>139200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>148500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>172300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>192300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>163800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>196500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>171900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-42200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-20300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-45000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-9500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E83" s="3">
         <v>2600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>3200</v>
       </c>
       <c r="L83" s="3">
         <v>3200</v>
       </c>
       <c r="M83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N83" s="3">
         <v>3400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E89" s="3">
         <v>4800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-18500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-13100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>10000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>7900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4649,25 +4882,28 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-12700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-11900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>57700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>21300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>37500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>10100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>STON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E8" s="3">
         <v>66400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>73200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>78500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>71500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>83400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>73200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>81600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>77900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>85300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>84000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>86000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>82900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>92500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>80800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>79000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E9" s="3">
         <v>16000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>22500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>21400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>22700</v>
-      </c>
-      <c r="M9" s="3">
-        <v>19100</v>
       </c>
       <c r="N9" s="3">
         <v>19100</v>
       </c>
       <c r="O9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="P9" s="3">
         <v>21000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>20100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>20000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E10" s="3">
         <v>50400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>61200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>53900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>60900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>53500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>56500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>64900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>66900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>73400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>59000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-24100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>24900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-4600</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-5000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>44700</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>-400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>3200</v>
       </c>
       <c r="M15" s="3">
         <v>3200</v>
       </c>
       <c r="N15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O15" s="3">
         <v>3400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>77600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>104500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>93700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>80800</v>
       </c>
-      <c r="H17" s="3">
-        <v>84400</v>
-      </c>
       <c r="I17" s="3">
+        <v>92200</v>
+      </c>
+      <c r="J17" s="3">
         <v>83200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>90300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>81000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>134200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>86400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>88700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>84000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>88700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>84500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>80700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-11200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-31300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-15200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-1000</v>
-      </c>
       <c r="I18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J18" s="3">
         <v>-10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-48900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-10200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-6600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-47000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E22" s="3">
         <v>13200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>6900</v>
-      </c>
-      <c r="N22" s="3">
-        <v>6700</v>
       </c>
       <c r="O22" s="3">
         <v>6700</v>
       </c>
       <c r="P22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="Q22" s="3">
         <v>7100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-44200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-22500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-20400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-17000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-57100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>23400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="3">
         <v>-42700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-22500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-51900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="3">
         <v>-42200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-22300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-51500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1773,24 +1834,24 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>3100</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>6500</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>4500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>11600</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>10200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3">
         <v>-42200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-22300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-20300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-45000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3">
         <v>-42200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-22300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-20300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-45000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E41" s="3">
         <v>34900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>43500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>41900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>24400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>18100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E43" s="3">
         <v>55800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>61500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>59600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>58400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>64200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>66800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>71500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>79100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>77100</v>
       </c>
       <c r="N43" s="3">
         <v>77100</v>
       </c>
       <c r="O43" s="3">
+        <v>77100</v>
+      </c>
+      <c r="P43" s="3">
         <v>76400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>77300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>75300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>74200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,273 +2535,291 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E45" s="3">
         <v>67700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>29400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>33600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>31800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>27800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>33600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>201100</v>
+      </c>
+      <c r="E46" s="3">
         <v>158300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>149300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>147700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>110100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>98300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>101600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>110300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>112200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>113000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>119200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>115700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>118000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>118800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>124500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>112500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>793900</v>
+      </c>
+      <c r="E47" s="3">
         <v>936400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>940700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>946500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>943500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>906000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>954800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>947600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>945100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>961300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>951900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>950800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>964200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>939700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>937500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>911400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>885300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>397100</v>
+      </c>
+      <c r="E48" s="3">
         <v>424000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>448900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>452000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>454800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>443600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>447400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>448300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>449000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>447500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>449300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>447500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>452200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>455600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>455400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>448600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>450400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>55900</v>
+      </c>
+      <c r="E49" s="3">
         <v>56200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>56600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>81700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>84800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>86300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>86800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>87200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>87700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>88100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>134200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>134700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>135300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>135900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>136600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>136700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>136500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>140400</v>
+      </c>
+      <c r="E52" s="3">
         <v>144400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>135000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>134900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>134300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>135000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>137300</v>
       </c>
       <c r="J52" s="3">
         <v>137300</v>
       </c>
       <c r="K52" s="3">
+        <v>137300</v>
+      </c>
+      <c r="L52" s="3">
         <v>134500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>146200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>144800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>143900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>141600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>137000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>140100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>136900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1588400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1719400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1730500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1762800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1727500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1669100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1727900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1730700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1728500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1756100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1799400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1792700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1811300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1787000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1794100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1746200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1716900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E57" s="3">
         <v>55100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>59000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>56500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>43000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>47200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>39600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>35500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>52600</v>
       </c>
       <c r="E59" s="3">
+        <v>20800</v>
+      </c>
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E60" s="3">
         <v>76300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>65100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>56000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>61800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>63000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>56000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>61800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>45800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>53400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>44700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>46100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>38900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>43100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>40500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>341400</v>
+      </c>
+      <c r="E61" s="3">
         <v>368000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>366800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>362200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>350400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>320200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>314100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>320500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>318900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>317700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>306600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>306700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>303600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>300400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>314000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>277900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1235500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1377600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1345100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1348100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1339300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1293600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1337300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1323600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1301900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1300900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1302600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1295100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1291400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1257400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1275500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1231900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1187300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1681500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1821900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1777000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1766300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1756300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1675700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1714400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1682700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1664400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1662600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1646500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1641100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1596700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1632600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1550300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1545200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3677,52 +3845,55 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>52500</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G70" s="3">
         <v>52900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>-4200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>-4000</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-3800</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-3600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-3400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-3000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-2500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-2400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-2100</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-2200</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-600</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,31 +3945,34 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>9000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="3">
+        <v>-93100</v>
       </c>
       <c r="E76" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-99000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-56300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-24600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>34200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>94700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>139200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>148500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>172300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>192300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>163800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>196500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>171900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3">
         <v>-42200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-22300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-20300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-45000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E83" s="3">
         <v>2700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>3200</v>
       </c>
       <c r="M83" s="3">
         <v>3200</v>
       </c>
       <c r="N83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O83" s="3">
         <v>3400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-18500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-13100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>12400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>7900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>26100</v>
+      </c>
+      <c r="E94" s="3">
         <v>4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4885,25 +5119,28 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-12700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-11900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>57700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>21300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>37500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>10100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>STON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E8" s="3">
         <v>71200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>73200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>78500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>71500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>83400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>81600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>77900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>85300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>84000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>86000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>82900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>92500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>80800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>79000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E9" s="3">
         <v>17100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>16000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>22500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>19700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>21400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22700</v>
-      </c>
-      <c r="N9" s="3">
-        <v>19100</v>
       </c>
       <c r="O9" s="3">
         <v>19100</v>
       </c>
       <c r="P9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>21000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>19100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>20100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>20000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E10" s="3">
         <v>54100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>50400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>55300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>61200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>53900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>53500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>56500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>64900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>66900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>73400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>60700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>59000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1065,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-24100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>24900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
         <v>3200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-5000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>44700</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>-400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>1500</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E15" s="3">
         <v>2500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>3200</v>
       </c>
       <c r="N15" s="3">
         <v>3200</v>
       </c>
       <c r="O15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P15" s="3">
         <v>3400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="3">
         <v>77600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>104500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>93700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>80800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>92200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>83200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>90300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>81000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>134200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>86400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>88700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>84000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>88700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>84500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>80700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-31300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-15200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-48900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-10200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3">
         <v>-13100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-6600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-6600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-47000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E22" s="3">
         <v>12300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>13200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>6900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>6700</v>
       </c>
       <c r="P22" s="3">
         <v>6700</v>
       </c>
       <c r="Q22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="R22" s="3">
         <v>7100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>10300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-44200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-22500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-17000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-57100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6400</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1660,53 +1712,56 @@
       <c r="E26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="3">
         <v>-42700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-23600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-17200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-51900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1716,53 +1771,56 @@
       <c r="E27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="3">
         <v>-42200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-34000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-23400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-51500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1837,24 +1898,24 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>3100</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>6500</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,64 +2052,70 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="3">
         <v>4500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>10200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2052,53 +2125,56 @@
       <c r="E33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="3">
         <v>-42200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-34000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-45000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2164,114 +2243,120 @@
       <c r="E35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="3">
         <v>-42200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-34000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-45000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E41" s="3">
         <v>27100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>43500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>41900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>24400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E43" s="3">
         <v>55500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>61500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>59600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>58400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>64200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>66800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>71500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>79100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>77100</v>
       </c>
       <c r="O43" s="3">
         <v>77100</v>
       </c>
       <c r="P43" s="3">
+        <v>77100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>76400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>77300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>75300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>74200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,288 +2634,306 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E45" s="3">
         <v>118500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>67700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>29400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>33600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>31800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>29000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>33600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>169800</v>
+      </c>
+      <c r="E46" s="3">
         <v>201100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>158300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>149300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>147700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>110100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>98300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>101600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>110300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>112200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>113000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>119200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>115700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>118000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>118800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>124500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>112500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>843800</v>
+      </c>
+      <c r="E47" s="3">
         <v>793900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>936400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>940700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>946500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>943500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>906000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>954800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>947600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>945100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>961300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>951900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>950800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>964200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>939700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>937500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>911400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>885300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>395400</v>
+      </c>
+      <c r="E48" s="3">
         <v>397100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>424000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>448900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>452000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>454800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>443600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>447400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>448300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>449000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>447500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>449300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>447500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>452200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>455600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>455400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>448600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>450400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E49" s="3">
         <v>55900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>56200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>56600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>81700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>84800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>86300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>86800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>87200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>87700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>88100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>134200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>134700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>135300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>135900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>136600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>136700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>136500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>141400</v>
+      </c>
+      <c r="E52" s="3">
         <v>140400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>144400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>135000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>134900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>134300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>135000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>137300</v>
       </c>
       <c r="K52" s="3">
         <v>137300</v>
       </c>
       <c r="L52" s="3">
+        <v>137300</v>
+      </c>
+      <c r="M52" s="3">
         <v>134500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>146200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>144800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>143900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>141600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>137000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>140100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>136900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1606100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1588400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1719400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1730500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1762800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1727500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1669100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1727900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1730700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1728500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1756100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1799400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1792700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1811300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1787000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1794100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1746200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1716900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E57" s="3">
         <v>49900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>61300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>59000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>56500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>43000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>47200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>39600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>35500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E59" s="3">
         <v>52600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75300</v>
+      </c>
+      <c r="E60" s="3">
         <v>104600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>76300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>65100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>56000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>61800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>63000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>61800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>45800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>53400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>44700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>46100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>38900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>43100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>40500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E61" s="3">
         <v>341400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>368000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>366800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>362200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>350400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>320200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>314100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>320500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>318900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>317700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>306600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>306700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>303600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>300400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>314000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>277900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1288400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1235500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1377600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1345100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1348100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1339300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1293600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1337300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1323600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1301900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1300900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1302600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1295100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1291400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1257400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1275500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1231900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1187300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1685800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1681500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1821900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1777000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1766300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1756300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1675700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1714400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1682700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1664400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1662600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1646500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1641100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1596700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1632600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1550300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1545200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3848,52 +4016,55 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>52500</v>
       </c>
-      <c r="G70" s="3">
+      <c r="H70" s="3">
         <v>52900</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>-4200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-4000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-3800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-3600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-3400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-3000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-2500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-2400</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-1900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-2200</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-600</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,17 +4119,20 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E72" s="3">
         <v>9000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
@@ -3974,8 +4148,8 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L72" s="3">
         <v>0</v>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-79700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-93100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-102500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-99000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-56300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-24600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>94700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>139200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>148500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>172300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>192300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>163800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>196500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>171900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4356,53 +4551,56 @@
       <c r="E81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="3">
         <v>-42200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-34000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-45000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E83" s="3">
         <v>2500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>3200</v>
       </c>
       <c r="N83" s="3">
         <v>3200</v>
       </c>
       <c r="O83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P83" s="3">
         <v>3400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-18500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>12400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-4600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>7900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E94" s="3">
         <v>26100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5122,25 +5356,28 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-12700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-30200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>57700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>21300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>37500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>10100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-4100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>STON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E8" s="3">
         <v>70700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>71200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>66400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>73200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>78500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>71500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>83400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>81600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>77900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>85300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>84000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>86000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>82900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>92500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>80800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>79000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E9" s="3">
         <v>16400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>16000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>19700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>19800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>21400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>19100</v>
       </c>
       <c r="P9" s="3">
         <v>19100</v>
       </c>
       <c r="Q9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="R9" s="3">
         <v>21000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>20100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>20000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>59500</v>
+      </c>
+      <c r="E10" s="3">
         <v>54300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>54100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>50400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>55300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>61200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>53900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>60900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>53500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>56500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>64900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>66900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>60700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>59000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1085,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-7000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-24100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>24900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-5000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>44700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>1500</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,58 +1159,61 @@
         <v>2300</v>
       </c>
       <c r="E15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F15" s="3">
         <v>2500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>3200</v>
       </c>
       <c r="O15" s="3">
         <v>3200</v>
       </c>
       <c r="P15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>3400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1232,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1217,56 +1244,59 @@
       <c r="E17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="3">
         <v>77600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>104500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>93700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>80800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>92200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>83200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>90300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>81000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>134200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>86400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>88700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>84000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>88700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>84500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>80700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,56 +1306,59 @@
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
         <v>-11200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-31300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-15200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-48900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1358,56 +1392,59 @@
       <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-10200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1417,233 +1454,245 @@
       <c r="E21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="3">
         <v>-13100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-47000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E22" s="3">
         <v>12100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>12300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>6900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>6700</v>
       </c>
       <c r="Q22" s="3">
         <v>6700</v>
       </c>
       <c r="R22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="S22" s="3">
         <v>7100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-44200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-28000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-16800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-57100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6400</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1750,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1716,52 +1768,55 @@
         <v>8</v>
       </c>
       <c r="G26" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="H26" s="3">
         <v>-42700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-34400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-23600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-51900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1775,52 +1830,55 @@
         <v>8</v>
       </c>
       <c r="G27" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="H27" s="3">
         <v>-42200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-34000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-23400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-51500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-9200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1901,24 +1962,24 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>3100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>6500</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2066,56 +2136,59 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>3800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>10200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2129,52 +2202,55 @@
         <v>8</v>
       </c>
       <c r="G33" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="H33" s="3">
         <v>-42200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-34000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-45000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-9200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2308,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2247,116 +2326,122 @@
         <v>8</v>
       </c>
       <c r="G35" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="H35" s="3">
         <v>-42200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-34000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-45000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-9200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E41" s="3">
         <v>42900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>43500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>41900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>24400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>13700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>12600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E43" s="3">
         <v>56000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>55500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>55800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>61500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>59600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>58400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>57900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>64200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>66800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>71500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>79100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>77100</v>
       </c>
       <c r="P43" s="3">
         <v>77100</v>
       </c>
       <c r="Q43" s="3">
+        <v>77100</v>
+      </c>
+      <c r="R43" s="3">
         <v>76400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>77300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>75300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>74200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,303 +2733,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E45" s="3">
         <v>71000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>118500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>67700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>46300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>30300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>27000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>33600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>31800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>33600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>174300</v>
+      </c>
+      <c r="E46" s="3">
         <v>169800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>201100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>158300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>149300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>147700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>110100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>98300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>101600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>110300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>112200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>113000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>119200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>115700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>118000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>118800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>124500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>112500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>860400</v>
+      </c>
+      <c r="E47" s="3">
         <v>843800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>793900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>936400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>940700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>946500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>943500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>906000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>954800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>947600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>945100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>961300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>951900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>950800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>964200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>939700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>937500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>911400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>885300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>393200</v>
+      </c>
+      <c r="E48" s="3">
         <v>395400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>397100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>424000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>448900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>452000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>454800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>443600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>447400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>448300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>449000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>447500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>449300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>447500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>452200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>455600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>455400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>448600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>450400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E49" s="3">
         <v>55700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>55900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>56200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>56600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>81700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>84800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>86300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>86800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>87200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>87700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>88100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>134200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>134700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>135300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>135900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>136600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>136700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>136500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>143200</v>
+      </c>
+      <c r="E52" s="3">
         <v>141400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>140400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>144400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>135000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>134900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>134300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>135000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>137300</v>
       </c>
       <c r="L52" s="3">
         <v>137300</v>
       </c>
       <c r="M52" s="3">
+        <v>137300</v>
+      </c>
+      <c r="N52" s="3">
         <v>134500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>146200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>144800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>143900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>141600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>137000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>140100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>136900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1626400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1606100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1588400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1719400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1730500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1762800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1727500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1669100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1727900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1730700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1728500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1756100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1799400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1792700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1811300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1787000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1794100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1746200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1716900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E57" s="3">
         <v>49600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>61300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>59000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>56500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>43000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>47200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>39600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>39000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>35500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>35900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E59" s="3">
         <v>24400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>52600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E60" s="3">
         <v>75300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>104600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>76300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>65100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>56000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>66600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>61800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>63000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>61800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>45800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>53400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>44700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>46100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>38900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>43100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>40500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>327200</v>
+      </c>
+      <c r="E61" s="3">
         <v>322000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>341400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>368000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>366800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>362200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>350400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>320200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>314100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>320500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>318900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>317700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>306600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>306700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>303600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>300400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>314000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>277900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1307900</v>
+      </c>
+      <c r="E62" s="3">
         <v>1288400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1235500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1377600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1345100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1348100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1339300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1293600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1337300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1323600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1301900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1300900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1302600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1295100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1291400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1257400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1275500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1231900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1187300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1713600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1685800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1681500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1821900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1777000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1766300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1756300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1675700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1714400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1700100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1682700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1664400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1662600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1646500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1641100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1596700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1632600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1550300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1545200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4019,52 +4187,55 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>52500</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>52900</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>-4200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>-4000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>-3800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-3600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-3400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-3000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-2500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-2100</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-1900</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-2200</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-600</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,20 +4293,23 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E72" s="3">
         <v>5100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4151,8 +4325,8 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="L72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -4181,8 +4355,11 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-87200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-79700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-93100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-102500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-99000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-56300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-24600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>94700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>139200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>148500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>172300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>192300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>163800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>196500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>171900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4665,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4555,52 +4750,55 @@
         <v>8</v>
       </c>
       <c r="G81" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="H81" s="3">
         <v>-42200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-34000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-45000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-9200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,58 +4830,61 @@
         <v>2300</v>
       </c>
       <c r="E83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>2800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3000</v>
-      </c>
-      <c r="N83" s="3">
-        <v>3200</v>
       </c>
       <c r="O83" s="3">
         <v>3200</v>
       </c>
       <c r="P83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>3400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>3800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E89" s="3">
         <v>6400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-18500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-4600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>7900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>18400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>26100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5359,25 +5593,28 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-12700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-11900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-11100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-30200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>57700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>16100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>37500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>10100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-4100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>STON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,308 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>279500</v>
+      </c>
+      <c r="F8" s="3">
         <v>76900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>70700</v>
       </c>
-      <c r="F8" s="3">
-        <v>71200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>66400</v>
-      </c>
       <c r="H8" s="3">
+        <v>65100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>257200</v>
+      </c>
+      <c r="J8" s="3">
         <v>73200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>78500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>71500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>83400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>73200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>81600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>77900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>85300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>84000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>86000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>82900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>92500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>80800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>79000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>64100</v>
+      </c>
+      <c r="F9" s="3">
         <v>17400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>16400</v>
       </c>
-      <c r="F9" s="3">
-        <v>17100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>16000</v>
-      </c>
       <c r="H9" s="3">
+        <v>15100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>60000</v>
+      </c>
+      <c r="J9" s="3">
         <v>17900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>17300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>17600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>22500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>19700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>19800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>21400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>22700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>19100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>19100</v>
-      </c>
-      <c r="R9" s="3">
-        <v>21000</v>
       </c>
       <c r="S9" s="3">
         <v>19100</v>
       </c>
       <c r="T9" s="3">
+        <v>21000</v>
+      </c>
+      <c r="U9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="V9" s="3">
         <v>20100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>20000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>215400</v>
+      </c>
+      <c r="F10" s="3">
         <v>59500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>54300</v>
       </c>
-      <c r="F10" s="3">
-        <v>54100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>50400</v>
-      </c>
       <c r="H10" s="3">
+        <v>50000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>197200</v>
+      </c>
+      <c r="J10" s="3">
         <v>55300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>61200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>53900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>60900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>53500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>61800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>56500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>62600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>64900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>66900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>61900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>73400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>60700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>59000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,132 +1121,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-7000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-24100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>33300</v>
+      </c>
+      <c r="J14" s="3">
         <v>24900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>8500</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-5000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>44700</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>-400</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="3">
-        <v>1500</v>
+        <v>-400</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>1500</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E15" s="3">
+        <v>9200</v>
+      </c>
+      <c r="F15" s="3">
         <v>2300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>2300</v>
       </c>
-      <c r="F15" s="3">
-        <v>2500</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>10200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K15" s="3">
         <v>2700</v>
       </c>
-      <c r="H15" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N15" s="3">
         <v>2700</v>
       </c>
-      <c r="J15" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U15" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V15" s="3">
         <v>2900</v>
       </c>
-      <c r="L15" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="W15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="X15" s="3">
         <v>3100</v>
       </c>
-      <c r="N15" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>3200</v>
-      </c>
-      <c r="P15" s="3">
-        <v>3200</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3500</v>
-      </c>
-      <c r="S15" s="3">
-        <v>3800</v>
-      </c>
-      <c r="T15" s="3">
-        <v>2900</v>
-      </c>
-      <c r="U15" s="3">
-        <v>3200</v>
-      </c>
-      <c r="V15" s="3">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>276300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>73600</v>
       </c>
       <c r="G17" s="3">
-        <v>77600</v>
+        <v>63800</v>
       </c>
       <c r="H17" s="3">
+        <v>67200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>330600</v>
+      </c>
+      <c r="J17" s="3">
         <v>104500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>93700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>80800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>92200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>83200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>90300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>81000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>134200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>86400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>88700</v>
-      </c>
-      <c r="R17" s="3">
-        <v>84000</v>
       </c>
       <c r="S17" s="3">
         <v>88700</v>
       </c>
       <c r="T17" s="3">
+        <v>84000</v>
+      </c>
+      <c r="U17" s="3">
+        <v>88700</v>
+      </c>
+      <c r="V17" s="3">
         <v>84500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>80700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3300</v>
       </c>
       <c r="G18" s="3">
-        <v>-11200</v>
+        <v>6900</v>
       </c>
       <c r="H18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-73400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-31300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-15200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-9300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-48900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1446,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-4500</v>
+        <v>-2200</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-10200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5500</v>
       </c>
       <c r="G21" s="3">
-        <v>-13100</v>
+        <v>7000</v>
       </c>
       <c r="H21" s="3">
+        <v>300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-28800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-16000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-9700</v>
       </c>
       <c r="L21" s="3">
         <v>-6600</v>
       </c>
       <c r="M21" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="O21" s="3">
         <v>-5700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-10200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-47000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>2400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>9100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F22" s="3">
         <v>12200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>12100</v>
       </c>
-      <c r="F22" s="3">
-        <v>12300</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45200</v>
+      </c>
+      <c r="J22" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="L22" s="3">
         <v>13200</v>
       </c>
-      <c r="H22" s="3">
-        <v>12800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>9300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>13200</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>7600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>7100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>7000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>6900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>6700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>6700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>7100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>5900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>5700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-42200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7400</v>
       </c>
-      <c r="F23" s="3">
-        <v>10300</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-29000</v>
-      </c>
       <c r="H23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-126500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-44200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-28000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-22500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-20400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-17000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-16800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-20300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-57100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-10900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-7800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-10100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-7600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
-        <v>23400</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>6400</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-2400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-7900</v>
       </c>
       <c r="G26" s="3">
-        <v>-52400</v>
+        <v>-3900</v>
       </c>
       <c r="H26" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-154700</v>
+      </c>
+      <c r="J26" s="3">
         <v>-42700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-34400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-22500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-23600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-17200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-17900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-51900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-11600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-8600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-9900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-8100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-7900</v>
       </c>
       <c r="G27" s="3">
-        <v>-52400</v>
+        <v>-3900</v>
       </c>
       <c r="H27" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-155700</v>
+      </c>
+      <c r="J27" s="3">
         <v>-42200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-34000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-22300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-23400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-16800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-17700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-51500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-11500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-8500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-9800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-9200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,16 +2054,22 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>600</v>
+      </c>
+      <c r="E29" s="3">
+        <v>29000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1956,35 +2077,35 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>23800</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>3100</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>3100</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>6500</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>6500</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>4500</v>
+        <v>2200</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>3800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>10200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-7900</v>
       </c>
       <c r="G33" s="3">
-        <v>-52400</v>
+        <v>-3900</v>
       </c>
       <c r="H33" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-42200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-34000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-22300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-20300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-17000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-16800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-17700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-45000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-11500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-8500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-9800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-9200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-7900</v>
       </c>
       <c r="G35" s="3">
-        <v>-52400</v>
+        <v>-3900</v>
       </c>
       <c r="H35" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-42200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-34000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-22300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-20300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-17000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-16800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-17700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-45000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-11500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-8500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-9800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-9200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2659,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>39200</v>
+      </c>
+      <c r="F41" s="3">
         <v>44000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>42900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>27100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>34900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>43500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>41900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>24400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>18100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>8000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>15000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>10400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>6800</v>
-      </c>
-      <c r="P41" s="3">
-        <v>8500</v>
       </c>
       <c r="Q41" s="3">
         <v>6800</v>
       </c>
       <c r="R41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="S41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="T41" s="3">
         <v>13700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>12600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>15600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>9400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,70 +2791,82 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>57900</v>
+      </c>
+      <c r="F43" s="3">
         <v>58000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>56000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>55500</v>
       </c>
-      <c r="G43" s="3">
-        <v>55800</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>54000</v>
+      </c>
+      <c r="J43" s="3">
         <v>61500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>59600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>58400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>57900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>64200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>66800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>71500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>79100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>77100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>77100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>76400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>77300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>75300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>74200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,318 +2927,354 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>71600</v>
+      </c>
+      <c r="F45" s="3">
         <v>72300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>71000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>118500</v>
       </c>
-      <c r="G45" s="3">
-        <v>67700</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>180100</v>
+      </c>
+      <c r="J45" s="3">
         <v>44400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>46300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>27300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>22200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>29400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>28500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>30300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>27000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>33600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>31800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>27800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>29000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>33600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>28900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>179600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>168700</v>
+      </c>
+      <c r="F46" s="3">
         <v>174300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>169800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>201100</v>
       </c>
-      <c r="G46" s="3">
-        <v>158300</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>269000</v>
+      </c>
+      <c r="J46" s="3">
         <v>149300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>147700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>110100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>98300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>101600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>110300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>112200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>113000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>119200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>115700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>118000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>118800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>124500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>112500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>919800</v>
+      </c>
+      <c r="E47" s="3">
+        <v>889000</v>
+      </c>
+      <c r="F47" s="3">
         <v>860400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>843800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>793900</v>
       </c>
-      <c r="G47" s="3">
-        <v>936400</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
+        <v>864400</v>
+      </c>
+      <c r="J47" s="3">
         <v>940700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>946500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>943500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>906000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>954800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>947600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>945100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>961300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>951900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>950800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>964200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>939700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>937500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>911400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>885300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>393200</v>
+        <v>386300</v>
       </c>
       <c r="E48" s="3">
-        <v>395400</v>
+        <v>388200</v>
       </c>
       <c r="F48" s="3">
-        <v>397100</v>
+        <v>401100</v>
       </c>
       <c r="G48" s="3">
-        <v>424000</v>
+        <v>403700</v>
       </c>
       <c r="H48" s="3">
+        <v>405900</v>
+      </c>
+      <c r="I48" s="3">
+        <v>402700</v>
+      </c>
+      <c r="J48" s="3">
         <v>448900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>452000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>454800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>443600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>447400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>448300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>449000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>447500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>449300</v>
       </c>
       <c r="Q48" s="3">
         <v>447500</v>
       </c>
       <c r="R48" s="3">
+        <v>449300</v>
+      </c>
+      <c r="S48" s="3">
+        <v>447500</v>
+      </c>
+      <c r="T48" s="3">
         <v>452200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>455600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>455400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>448600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>450400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>55100</v>
+      </c>
+      <c r="F49" s="3">
         <v>55400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>55700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>55900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>56200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>56600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>81700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>84800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>86300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>86800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>87200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>87700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>88100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>134200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>134700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>135300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>135900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>136600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>136700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>136500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3403,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>143200</v>
+        <v>136600</v>
       </c>
       <c r="E52" s="3">
-        <v>141400</v>
+        <v>134000</v>
       </c>
       <c r="F52" s="3">
-        <v>140400</v>
+        <v>135300</v>
       </c>
       <c r="G52" s="3">
-        <v>144400</v>
+        <v>133100</v>
       </c>
       <c r="H52" s="3">
+        <v>131600</v>
+      </c>
+      <c r="I52" s="3">
+        <v>127100</v>
+      </c>
+      <c r="J52" s="3">
         <v>135000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>134900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>134300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>135000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>137300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>137300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>134500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>146200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>144800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>143900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>141600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>137000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>140100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>136900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1677100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1635000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1626400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1606100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1588400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1719400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1730500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1762800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1727500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1669100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1727900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1730700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1728500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1756100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1799400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1792700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1811300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1787000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1794100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1746200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1716900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3663,418 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>52500</v>
+        <v>48500</v>
       </c>
       <c r="E57" s="3">
-        <v>49600</v>
+        <v>49100</v>
       </c>
       <c r="F57" s="3">
-        <v>49900</v>
+        <v>49400</v>
       </c>
       <c r="G57" s="3">
-        <v>55100</v>
+        <v>46600</v>
       </c>
       <c r="H57" s="3">
+        <v>46900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>51600</v>
+      </c>
+      <c r="J57" s="3">
         <v>61300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>51800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>54600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>59000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>56500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>51900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>53200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>43000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>47200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>39600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>39000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>35500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>35900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>33700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M58" s="3">
+        <v>800</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>1100</v>
       </c>
-      <c r="E58" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F58" s="3">
+      <c r="S58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
-        <v>400</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>3300</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>3300</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>2100</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>5400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24900</v>
+        <v>25300</v>
       </c>
       <c r="E59" s="3">
-        <v>24400</v>
+        <v>24700</v>
       </c>
       <c r="F59" s="3">
-        <v>52600</v>
+        <v>26700</v>
       </c>
       <c r="G59" s="3">
-        <v>20800</v>
+        <v>26200</v>
       </c>
       <c r="H59" s="3">
+        <v>54400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>103900</v>
+      </c>
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>5300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1900</v>
       </c>
       <c r="N59" s="3">
         <v>5300</v>
       </c>
       <c r="O59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="P59" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="Q59" s="3">
         <v>1800</v>
       </c>
       <c r="R59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="S59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T59" s="3">
         <v>5400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1600</v>
-      </c>
-      <c r="T59" s="3">
-        <v>5000</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1500</v>
       </c>
       <c r="V59" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X59" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>75500</v>
+      </c>
+      <c r="F60" s="3">
         <v>78600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>75300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>104600</v>
       </c>
-      <c r="G60" s="3">
-        <v>76300</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>157100</v>
+      </c>
+      <c r="J60" s="3">
         <v>65100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>56000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>66600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>61800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>63000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>56000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>61800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>45800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>53400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>44700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>46100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>38900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>43100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>40500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>327200</v>
+        <v>324300</v>
       </c>
       <c r="E61" s="3">
-        <v>322000</v>
+        <v>323300</v>
       </c>
       <c r="F61" s="3">
-        <v>341400</v>
+        <v>330200</v>
       </c>
       <c r="G61" s="3">
-        <v>368000</v>
+        <v>325600</v>
       </c>
       <c r="H61" s="3">
+        <v>345400</v>
+      </c>
+      <c r="I61" s="3">
+        <v>372300</v>
+      </c>
+      <c r="J61" s="3">
         <v>366800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>362200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>350400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>320200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>314100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>320500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>318900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>317700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>306600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>306700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>303600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>300400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>314000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>277900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1307900</v>
+        <v>1371000</v>
       </c>
       <c r="E62" s="3">
-        <v>1288400</v>
+        <v>1328500</v>
       </c>
       <c r="F62" s="3">
-        <v>1235500</v>
+        <v>1304800</v>
       </c>
       <c r="G62" s="3">
-        <v>1377600</v>
+        <v>1284900</v>
       </c>
       <c r="H62" s="3">
+        <v>1231500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1292500</v>
+      </c>
+      <c r="J62" s="3">
         <v>1345100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1348100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1339300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1293600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1337300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1323600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1301900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1300900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1302600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1295100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1291400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1257400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1275500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1231900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1187300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1773600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1727400</v>
+      </c>
+      <c r="F66" s="3">
         <v>1713600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1685800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1681500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1821900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1777000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1766300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1756300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1675700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1714400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1700100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1682700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1664400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1662600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1646500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1641100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1596700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1632600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1550300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1545200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4190,52 +4525,58 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>52500</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>52900</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>-4200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>-4000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>-3800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>-3600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>-3400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>-3000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>-2400</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>-2100</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>-1900</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>-2200</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>-600</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,25 +4637,31 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>5100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>9000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -4328,11 +4675,11 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -4358,8 +4705,14 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-92400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-87200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-79700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-93100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-102500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-99000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-56300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-24600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>17300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>34200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>49300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>94700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>139200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>148500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>172300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>192300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>163800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>196500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>171900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-7900</v>
       </c>
       <c r="G81" s="3">
-        <v>-52400</v>
+        <v>-3900</v>
       </c>
       <c r="H81" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-153000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-42200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-34000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-22300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-20300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-17000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-16800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-17700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-45000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-11500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-8500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-9800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-9200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5216,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F83" s="3">
         <v>2300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>2300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K83" s="3">
         <v>2700</v>
       </c>
-      <c r="H83" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N83" s="3">
         <v>2700</v>
       </c>
-      <c r="J83" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="O83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="V83" s="3">
         <v>2900</v>
       </c>
-      <c r="L83" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="W83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="X83" s="3">
         <v>3100</v>
       </c>
-      <c r="N83" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O83" s="3">
-        <v>3200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>3200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>3400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>3500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>3800</v>
-      </c>
-      <c r="T83" s="3">
-        <v>2900</v>
-      </c>
-      <c r="U83" s="3">
-        <v>3200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>3100</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F89" s="3">
         <v>2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="J89" s="3">
         <v>4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-18500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-13100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>7000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>9300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>6200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-9700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>9200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>12400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>4300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>10000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-2100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-3300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-4400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>7900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-4300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-10400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>18400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>26100</v>
       </c>
-      <c r="G94" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1900</v>
       </c>
       <c r="K94" s="3">
         <v>-1700</v>
       </c>
       <c r="L94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-3300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-5200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-11200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-2700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5596,25 +6063,31 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-12700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-11900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-11100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-23400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-23300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-8800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-30200</v>
       </c>
-      <c r="G100" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>76800</v>
+      </c>
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>57700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>21300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-8500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>10100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-9100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-9700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-6500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>7300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-4500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>16100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-9300</v>
       </c>
-      <c r="G102" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>38600</v>
+      </c>
+      <c r="J102" s="3">
         <v>2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>37500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>10100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>4600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-6900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-3000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>6200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-4100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,321 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E8" s="3">
         <v>78300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>279500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>76900</v>
       </c>
-      <c r="G8" s="3">
-        <v>70700</v>
-      </c>
       <c r="H8" s="3">
+        <v>66600</v>
+      </c>
+      <c r="I8" s="3">
         <v>65100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>257200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>71500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>83400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>73200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>81600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>77900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>85300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>84000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>86000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>82900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>92500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>80800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>79000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E9" s="3">
         <v>17500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>64100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>16400</v>
       </c>
       <c r="H9" s="3">
         <v>15100</v>
       </c>
       <c r="I9" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J9" s="3">
         <v>60000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>19700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>21400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22700</v>
-      </c>
-      <c r="R9" s="3">
-        <v>19100</v>
       </c>
       <c r="S9" s="3">
         <v>19100</v>
       </c>
       <c r="T9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="U9" s="3">
         <v>21000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>19100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>20100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>20000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E10" s="3">
         <v>60800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>215400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>59500</v>
       </c>
-      <c r="G10" s="3">
-        <v>54300</v>
-      </c>
       <c r="H10" s="3">
+        <v>51500</v>
+      </c>
+      <c r="I10" s="3">
         <v>50000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>197200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>55300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>53900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>53500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>56500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>62600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>64900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>66900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>61900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>73400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>60700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>59000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,67 +1144,70 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-7000</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-24100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>33300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>24900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8500</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3200</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>44700</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-400</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1500</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>8</v>
@@ -1195,19 +1215,22 @@
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>9200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2300</v>
       </c>
       <c r="G15" s="3">
         <v>2300</v>
@@ -1216,55 +1239,58 @@
         <v>2300</v>
       </c>
       <c r="I15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J15" s="3">
         <v>10200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>3200</v>
       </c>
       <c r="R15" s="3">
         <v>3200</v>
       </c>
       <c r="S15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T15" s="3">
         <v>3400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>119100</v>
+      </c>
+      <c r="E17" s="3">
         <v>74700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>276300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>73600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>63800</v>
       </c>
       <c r="H17" s="3">
         <v>67200</v>
       </c>
       <c r="I17" s="3">
+        <v>67200</v>
+      </c>
+      <c r="J17" s="3">
         <v>330600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>104500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>93700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>80800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>92200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>83200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>90300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>81000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>134200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>86400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>88700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>84000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>88700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>84500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>80700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E18" s="3">
         <v>3600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
-        <v>6900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-73400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-31300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-48900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1481,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-2200</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-3800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5500</v>
       </c>
-      <c r="G21" s="3">
-        <v>7000</v>
-      </c>
       <c r="H21" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-70500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-28800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-47000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="3">
         <v>10500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>45500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>12200</v>
       </c>
-      <c r="G22" s="3">
-        <v>12100</v>
-      </c>
       <c r="H22" s="3">
+        <v>11700</v>
+      </c>
+      <c r="I22" s="3">
         <v>11400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>45200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>9300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>7700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>7100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>6900</v>
-      </c>
-      <c r="S22" s="3">
-        <v>6700</v>
       </c>
       <c r="T22" s="3">
         <v>6700</v>
       </c>
       <c r="U22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="V22" s="3">
         <v>7100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-42200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9000</v>
       </c>
-      <c r="G23" s="3">
-        <v>-7400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-13500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-126500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-44200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-28000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-57100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-10100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6400</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-14800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-154700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-42700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-23600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-17200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-51900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="I27" s="3">
         <v>-14800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-155700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-42200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-34000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-23400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-17000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-51500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,31 +2118,34 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>900</v>
+      </c>
+      <c r="E29" s="3">
         <v>600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>29000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I29" s="3">
         <v>23800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>2800</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2092,11 +2153,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>3100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2104,11 +2165,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>6500</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>3800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>10200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-153000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-42200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-34000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-17000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-45000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-153000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-42200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-34000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-17000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-45000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E41" s="3">
         <v>48700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>39200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>43500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>24400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>18100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>13700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>12600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E43" s="3">
         <v>58900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>57900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>58000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>56000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>55500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>54000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>61500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>59600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>58400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>64200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>66800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>71500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>79100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>77100</v>
       </c>
       <c r="S43" s="3">
         <v>77100</v>
       </c>
       <c r="T43" s="3">
+        <v>77100</v>
+      </c>
+      <c r="U43" s="3">
         <v>76400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>77300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>75300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>74200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,348 +3029,366 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E45" s="3">
         <v>72000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>71600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>72300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>71000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>118500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>180100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>30300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>27000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>33600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>31800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>27800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>29000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>33600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>28900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E46" s="3">
         <v>179600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>168700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>174300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>169800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>201100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>269000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>149300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>147700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>110100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>98300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>101600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>110300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>112200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>113000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>119200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>115700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>118000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>118800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>124500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>112500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>947800</v>
+      </c>
+      <c r="E47" s="3">
         <v>919800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>889000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>860400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>843800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>793900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>864400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>940700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>946500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>943500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>906000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>954800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>947600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>945100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>961300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>951900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>950800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>964200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>939700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>937500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>911400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>885300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>384200</v>
+      </c>
+      <c r="E48" s="3">
         <v>386300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>388200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>401100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>403700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>405900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>402700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>448900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>452000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>454800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>443600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>447400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>448300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>449000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>447500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>449300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>447500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>452200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>455600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>455400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>448600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>450400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E49" s="3">
         <v>54800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>55100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>55400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>55700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>55900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>56200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>56600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>81700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>84800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>86300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>86800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>87200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>87700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>88100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>134200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>134700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>135300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>135900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>136600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>136700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>136500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3526,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>137900</v>
+      </c>
+      <c r="E52" s="3">
         <v>136600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>134000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>135300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>133100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>131600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>127100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>135000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>134900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>134300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>135000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>137300</v>
       </c>
       <c r="O52" s="3">
         <v>137300</v>
       </c>
       <c r="P52" s="3">
+        <v>137300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>134500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>146200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>144800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>143900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>141600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>137000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>140100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>136900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1712200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1677100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1635000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1626400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1606100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1588400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1719400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1730500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1762800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1727500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1669100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1727900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1730700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1728500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1756100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1799400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1792700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1811300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1787000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1794100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1746200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1716900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3795,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E57" s="3">
         <v>48500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>46600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>61300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>51800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>54600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>59000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>56500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>53200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>43000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>47200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>39600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>35500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>35900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>33700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>4600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E59" s="3">
         <v>25300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>24700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>103900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E60" s="3">
         <v>78300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>78600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>104600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>157100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>65100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>56000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>66600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>61800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>63000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>56000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>61800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>45800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>53400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>44700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>46100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>38900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>43100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>40500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>391500</v>
+      </c>
+      <c r="E61" s="3">
         <v>324300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>323300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>330200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>325600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>345400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>372300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>366800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>362200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>350400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>320200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>314100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>320500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>318900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>317700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>306600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>306700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>303600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>300400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>314000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>277900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1399600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1371000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1328500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1304800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1284900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1231500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1292500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1345100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1348100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1339300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1293600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1337300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1323600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1301900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1300900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1302600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1295100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1291400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1257400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1275500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1231900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1187300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1843600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1773600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1727400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1713600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1685800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1681500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1821900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1777000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1766300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1756300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1675700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1714400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1682700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1664400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1662600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1646500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1641100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1596700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1632600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1550300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1545200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4531,52 +4699,55 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>52500</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>52900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>-4200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-4000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-3800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-3600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-3000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-2500</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-2400</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-2100</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>-1900</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>-2200</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>-600</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,28 +4814,31 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
@@ -4681,8 +4855,8 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-131400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-96500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-92400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-87200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-79700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-93100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-102500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-99000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-56300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-24600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>49300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>94700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>139200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>148500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>172300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>192300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>163800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>196500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>171900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-153000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-42200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-34000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-17000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-45000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>2300</v>
       </c>
       <c r="G83" s="3">
         <v>2300</v>
       </c>
       <c r="H83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I83" s="3">
         <v>2500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>2600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>3200</v>
       </c>
       <c r="R83" s="3">
         <v>3200</v>
       </c>
       <c r="S83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T83" s="3">
         <v>3400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>3200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E89" s="3">
         <v>4600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-38000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-18500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>7000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-9700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>12400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>10000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-4600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>7900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>51000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>18400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>26100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6069,25 +6303,28 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-12700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-11900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-11100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-23400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-23300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E100" s="3">
         <v>2300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-49000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-30200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>76800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>57700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>21300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>10100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>7300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E102" s="3">
         <v>5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>38600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>37500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>10100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-4100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>STON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,321 +665,334 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>82300</v>
+      </c>
+      <c r="E8" s="3">
         <v>83000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>78300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>279500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>76900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>65100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>257200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>78500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>71500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>83400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>73200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>81600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>77900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>85300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>84000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>86000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>82900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>92500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>80800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>79000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E9" s="3">
         <v>18400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>17500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>64100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>17400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>15100</v>
       </c>
       <c r="I9" s="3">
         <v>15100</v>
       </c>
       <c r="J9" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K9" s="3">
         <v>60000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>17600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>22500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>19700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>19800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>21400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>22700</v>
-      </c>
-      <c r="S9" s="3">
-        <v>19100</v>
       </c>
       <c r="T9" s="3">
         <v>19100</v>
       </c>
       <c r="U9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="V9" s="3">
         <v>21000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>19100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>20100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>20000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>64700</v>
+      </c>
+      <c r="E10" s="3">
         <v>64600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>60800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>215400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>59500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>51500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>50000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>197200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>53900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>60900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>56500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>62600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>64900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>66900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>61900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>73400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>60700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>59000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,20 +1164,23 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>42300</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
@@ -1168,49 +1188,49 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-24100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>33300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>24900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8500</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-5000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>44700</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-400</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1500</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1227,13 +1250,13 @@
         <v>2000</v>
       </c>
       <c r="E15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F15" s="3">
         <v>2100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>9200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>2300</v>
       </c>
       <c r="H15" s="3">
         <v>2300</v>
@@ -1242,55 +1265,58 @@
         <v>2300</v>
       </c>
       <c r="J15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K15" s="3">
         <v>10200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>3200</v>
       </c>
       <c r="S15" s="3">
         <v>3200</v>
       </c>
       <c r="T15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U15" s="3">
         <v>3400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>77400</v>
+      </c>
+      <c r="E17" s="3">
         <v>119100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>74700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>276300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>73600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>67200</v>
       </c>
       <c r="I17" s="3">
         <v>67200</v>
       </c>
       <c r="J17" s="3">
+        <v>67200</v>
+      </c>
+      <c r="K17" s="3">
         <v>330600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>104500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>93700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>80800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>92200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>83200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>90300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>81000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>134200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>86400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>88700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>84000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>88700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>84500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>80700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-36100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-73400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-31300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-48900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,23 +1515,24 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1506,339 +1540,354 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-10200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-34000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-70500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-28800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-16000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-47000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E22" s="3">
         <v>10000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>45500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>12200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>11700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>11400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>45200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>9300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>7700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>7600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>6900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>6700</v>
       </c>
       <c r="U22" s="3">
         <v>6700</v>
       </c>
       <c r="V22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="W22" s="3">
         <v>7100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-46000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-42200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-126500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-44200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-28000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-22500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-57100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-10100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6400</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-37300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-14800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-154700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-22500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-23600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-17900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-51900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-9600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-9900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-8100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-155700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-34000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-23400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-17700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-51500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-9500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-9800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,34 +2179,37 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E29" s="3">
         <v>900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>29000</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>4900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>23800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2800</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2156,11 +2217,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>3100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2168,11 +2229,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>6500</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,23 +2401,26 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2358,126 +2428,132 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>3800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>10200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-153000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-42200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-34000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-45000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-9500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-9800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-153000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-42200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-34000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-45000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-9500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-9800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E41" s="3">
         <v>90400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>39200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>42900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>43500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>24400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>18100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>13700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>12600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>15600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>9400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,79 +2980,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>60100</v>
+      </c>
+      <c r="E43" s="3">
         <v>58700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>58900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>58000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>56000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>55500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>54000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>61500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>59600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>58400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>64200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>66800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>71500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>79100</v>
-      </c>
-      <c r="S43" s="3">
-        <v>77100</v>
       </c>
       <c r="T43" s="3">
         <v>77100</v>
       </c>
       <c r="U43" s="3">
+        <v>77100</v>
+      </c>
+      <c r="V43" s="3">
         <v>76400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>77300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>75300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>74200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,363 +3128,381 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E45" s="3">
         <v>38700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>72000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>71600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>72300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>71000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>180100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>22200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>30300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>27000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>33600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>31800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>27800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>29000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>33600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>28900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200300</v>
+      </c>
+      <c r="E46" s="3">
         <v>187700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>179600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>168700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>174300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>169800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>201100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>269000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>149300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>147700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>110100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>98300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>101600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>110300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>112200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>113000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>119200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>115700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>118000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>118800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>124500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>112500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>959700</v>
+      </c>
+      <c r="E47" s="3">
         <v>947800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>919800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>889000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>860400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>843800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>793900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>864400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>940700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>946500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>943500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>906000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>954800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>947600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>945100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>961300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>951900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>950800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>964200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>939700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>937500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>911400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>885300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>382500</v>
+      </c>
+      <c r="E48" s="3">
         <v>384200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>386300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>388200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>401100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>403700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>405900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>402700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>448900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>452000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>454800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>443600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>447400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>448300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>449000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>447500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>449300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>447500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>452200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>455600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>455400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>448600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>450400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E49" s="3">
         <v>54600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>54800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>55100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>55400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>55700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>55900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>56200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>56600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>81700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>84800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>86300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>86800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>87200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>87700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>88100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>134200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>134700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>135300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>135900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>136600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>136700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>136500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,79 +3646,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E52" s="3">
         <v>137900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>136600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>134000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>135300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>133100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>131600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>127100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>135000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>134900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>134300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>135000</v>
-      </c>
-      <c r="O52" s="3">
-        <v>137300</v>
       </c>
       <c r="P52" s="3">
         <v>137300</v>
       </c>
       <c r="Q52" s="3">
+        <v>137300</v>
+      </c>
+      <c r="R52" s="3">
         <v>134500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>146200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>144800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>143900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>141600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>137000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>140100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>136900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1736900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1712200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1677100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1635000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1626400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1606100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1588400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1719400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1730500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1762800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1727500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1669100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1727900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1730700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1728500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1756100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1799400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1792700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1811300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1787000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1794100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1746200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1716900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,434 +3926,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E57" s="3">
         <v>43500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>46600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>46900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>61300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>51800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>54600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>59000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>56500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>51900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>53200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>43000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>47200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>39600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>39000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>35500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>35900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>33700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E58" s="3">
         <v>3200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E59" s="3">
         <v>5900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>25300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>24700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>54400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>103900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E60" s="3">
         <v>52500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>78300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>78600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>75300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>104600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>157100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>65100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>56000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>66600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>61800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>63000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>56000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>61800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>45800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>53400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>44700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>46100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>38900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>43100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>40500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E61" s="3">
         <v>391500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>324300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>323300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>330200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>325600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>345400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>372300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>366800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>362200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>350400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>320200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>314100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>320500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>318900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>317700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>306600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>306700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>303600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>300400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>314000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>277900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1421400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1399600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1371000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1328500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1304800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1284900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1231500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1292500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1345100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1348100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1339300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1293600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1337300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1323600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1301900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1300900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1302600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1295100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1291400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1257400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1275500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1231900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1187300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1872700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1843600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1773600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1727400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1713600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1685800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1681500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1821900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1777000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1766300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1756300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1675700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1714400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1682700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1664400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1662600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1646500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1641100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1596700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1632600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1550300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1545200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4702,52 +4870,55 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>52500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>52900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>-4200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>-4000</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>-3800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-3400</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-3000</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-2500</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-2400</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>-2100</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>-1900</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>-2200</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>-600</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,31 +4988,34 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-53200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9000</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -4858,8 +5032,8 @@
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-135700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-131400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-96500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-92400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-87200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-79700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-93100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-102500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-99000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-56300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-24600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>49300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>94700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>139200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>148500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>172300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>192300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>163800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>196500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>171900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-153000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-42200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-34000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-45000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-9500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-9800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,70 +5625,73 @@
         <v>2000</v>
       </c>
       <c r="E83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F83" s="3">
         <v>2100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9400</v>
-      </c>
-      <c r="G83" s="3">
-        <v>2300</v>
       </c>
       <c r="H83" s="3">
         <v>2300</v>
       </c>
       <c r="I83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J83" s="3">
         <v>2500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>3000</v>
-      </c>
-      <c r="R83" s="3">
-        <v>3200</v>
       </c>
       <c r="S83" s="3">
         <v>3200</v>
       </c>
       <c r="T83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U83" s="3">
         <v>3400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>3500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>3800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-38000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-18500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>7000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-9700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>4300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>10000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-4400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-4600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>7900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-4300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E94" s="3">
         <v>5000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>51000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>18400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>26100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-4400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6306,25 +6540,28 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-12700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-11900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-11100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-23400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-23300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E100" s="3">
         <v>42900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-49000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-30200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>76800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>57700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-8500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>10100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>7300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E102" s="3">
         <v>41700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>38600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>37500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>10100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>STON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,359 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>79300</v>
+      </c>
+      <c r="F8" s="3">
         <v>82300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>83000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>78300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>279500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>76900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>66600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>65100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>257200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>73200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>78500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>71500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>83400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>73200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>81600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>77900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>85300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>84000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>86000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>82900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>92500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>80800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>79000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>23900</v>
+      </c>
+      <c r="F9" s="3">
         <v>17600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>18400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>17500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>64100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>17400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>15100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>15100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>60000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>17900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>17300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>17600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>22500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>19700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>19800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>21400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>22700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>19100</v>
-      </c>
-      <c r="U9" s="3">
-        <v>19100</v>
-      </c>
-      <c r="V9" s="3">
-        <v>21000</v>
       </c>
       <c r="W9" s="3">
         <v>19100</v>
       </c>
       <c r="X9" s="3">
+        <v>21000</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="Z9" s="3">
         <v>20100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>20000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F10" s="3">
         <v>64700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>64600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>60800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>215400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>59500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>51500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>50000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>197200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>55300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>61200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>53900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>60900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>53500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>61800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>56500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>62600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>64900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>66900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>61900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>73400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>60700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>59000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,156 +1200,174 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>42300</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-24100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>33300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>24900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>8500</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-5000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>44700</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3">
-        <v>-400</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="W14" s="3">
-        <v>1500</v>
+        <v>-400</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>1500</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E15" s="3">
         <v>2000</v>
       </c>
       <c r="F15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="3">
         <v>2100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>9200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2300</v>
       </c>
       <c r="J15" s="3">
         <v>2300</v>
       </c>
       <c r="K15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M15" s="3">
         <v>10200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>2700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>3100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>3000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>3200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>3200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>3400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>3500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>3800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>2900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>3200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1391,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>83700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>87000</v>
+      </c>
+      <c r="F17" s="3">
         <v>77400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>119100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>74700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>276300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>73600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>67200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>67200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>330600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>104500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>93700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>80800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>92200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>83200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>90300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>81000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>134200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>86400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>88700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>84000</v>
       </c>
       <c r="W17" s="3">
         <v>88700</v>
       </c>
       <c r="X17" s="3">
+        <v>84000</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>88700</v>
+      </c>
+      <c r="Z17" s="3">
         <v>84500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>80700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F18" s="3">
         <v>4900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-36100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-73400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-31300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-15200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-9300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-8700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-48900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-1100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>3800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1581,170 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-7900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-10200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-1300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F21" s="3">
         <v>6300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-34000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>5700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>12700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>5500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-70500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-28800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-16000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-9700</v>
       </c>
       <c r="P21" s="3">
         <v>-6600</v>
       </c>
       <c r="Q21" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="S21" s="3">
         <v>-5700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-10200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-47000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>2400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>9100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1673,221 +1752,239 @@
         <v>9300</v>
       </c>
       <c r="E22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G22" s="3">
         <v>10000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>10500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>45500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>12200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>11700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>11400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>45200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>12800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>9300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>13200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>7700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>7600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>8100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>7100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>7000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>6900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>6700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>6700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>7100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>5900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>5700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-46000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-42200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-12300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-13500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-126500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-44200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-28000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-22500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-20400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-16800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-20300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-57100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-9000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-10900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-7800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-9700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-4900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-1100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>28200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>6400</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-2400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-5200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-36200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-37300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-8800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-154700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-42700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-34400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-22500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-23600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-17000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-17900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-51900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-9600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-11600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-8600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-8100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-36200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-37300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-8800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-14800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-155700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-42200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-34000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-22300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-23400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-16800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-17700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-51500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-9500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-11500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-8500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,64 +2297,70 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>300</v>
+      </c>
+      <c r="F29" s="3">
         <v>-100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>29000</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>4900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>23800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>2800</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>3100</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>3100</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>6500</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>6500</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2256,8 +2377,14 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2537,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>7900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>10200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>1300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-35400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-4600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-8400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-153000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-42200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-34000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-22300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-20300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-16800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-17700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-45000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-9500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-11500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-8500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-35400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-4600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-8400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-153000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-42200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-34000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-22300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-20300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-16800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-17700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-45000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-9500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-11500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-8500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +3006,90 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>74200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>83900</v>
+      </c>
+      <c r="F41" s="3">
         <v>99500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>90400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>48700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>39200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>44000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>42900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>27100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>34900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>43500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>41900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>24400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>18100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>8000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>15000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>10400</v>
-      </c>
-      <c r="S41" s="3">
-        <v>6800</v>
-      </c>
-      <c r="T41" s="3">
-        <v>8500</v>
       </c>
       <c r="U41" s="3">
         <v>6800</v>
       </c>
       <c r="V41" s="3">
+        <v>8500</v>
+      </c>
+      <c r="W41" s="3">
+        <v>6800</v>
+      </c>
+      <c r="X41" s="3">
         <v>13700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>12600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>15600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>9400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,82 +3162,94 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>62200</v>
+      </c>
+      <c r="F43" s="3">
         <v>60100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>58700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>58900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>57900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>58000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>56000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>55500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>54000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>61500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>59600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>58400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>57900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>64200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>66800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>71500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>79100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>77100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>77100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>76400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>77300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>75300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>74200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,378 +3322,414 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>34800</v>
+      </c>
+      <c r="F45" s="3">
         <v>40800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>38700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>72000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>71600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>72300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>71000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>118500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>180100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>44400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>46300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>27300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>22200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>29400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>28500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>30300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>27000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>33600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>31800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>27800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>29000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>33600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>28900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>180900</v>
+      </c>
+      <c r="F46" s="3">
         <v>200300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>187700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>179600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>168700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>174300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>169800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>201100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>269000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>149300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>147700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>110100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>98300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>101600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>110300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>112200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>113000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>119200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>115700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>118000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>118800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>124500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>112500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1007400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>979300</v>
+      </c>
+      <c r="F47" s="3">
         <v>959700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>947800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>919800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>889000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>860400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>843800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>793900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>864400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>940700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>946500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>943500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>906000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>954800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>947600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>945100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>961300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>951900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>950800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>964200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>939700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>937500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>911400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>885300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>390500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>385300</v>
+      </c>
+      <c r="F48" s="3">
         <v>382500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>384200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>386300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>388200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>401100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>403700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>405900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>402700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>448900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>452000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>454800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>443600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>447400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>448300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>449000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>447500</v>
-      </c>
-      <c r="T48" s="3">
-        <v>449300</v>
       </c>
       <c r="U48" s="3">
         <v>447500</v>
       </c>
       <c r="V48" s="3">
+        <v>449300</v>
+      </c>
+      <c r="W48" s="3">
+        <v>447500</v>
+      </c>
+      <c r="X48" s="3">
         <v>452200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>455600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>455400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>448600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>450400</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F49" s="3">
         <v>54300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>54600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>54800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>55100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>55400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>55700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>55900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>56200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>56600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>81700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>84800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>86300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>86800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>87200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>87700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>88100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>134200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>134700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>135300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>135900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>136600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>136700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>136500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3882,94 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>148700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>141600</v>
+      </c>
+      <c r="F52" s="3">
         <v>140100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>137900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>136600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>134000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>135300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>133100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>131600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>127100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>135000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>134900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>134300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>135000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>137300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>137300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>134500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>146200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>144800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>143900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>141600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>137000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>140100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>136900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1785500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1741100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1736900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1712200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1677100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1635000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1626400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1606100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1588400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1719400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1730500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1762800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1727500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1669100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1727900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1730700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1728500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1756100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1799400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1792700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1811300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1787000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1794100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1746200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1716900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,452 +4186,490 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>41700</v>
+      </c>
+      <c r="F57" s="3">
         <v>42400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>43500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>48500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>49100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>49400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>46600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>46900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>51600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>61300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>51800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>54600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>59000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>56500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>51900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>53200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>43000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>47200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>39600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>39000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>35500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>35900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>33700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F58" s="3">
         <v>3600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>3200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>4600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>3300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>3300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>2100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>5400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F59" s="3">
         <v>14300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>25300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>24700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>26700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>26200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>54400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>103900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>9800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>5300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1900</v>
       </c>
       <c r="R59" s="3">
         <v>5300</v>
       </c>
       <c r="S59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="T59" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="U59" s="3">
         <v>1800</v>
       </c>
       <c r="V59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X59" s="3">
         <v>5400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1600</v>
-      </c>
-      <c r="X59" s="3">
-        <v>5000</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>1500</v>
       </c>
       <c r="Z59" s="3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>49800</v>
+      </c>
+      <c r="F60" s="3">
         <v>60300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>52500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>78300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>75500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>78600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>75300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>104600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>157100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>65100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>56000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>66600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>61800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>63000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>56000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>61800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>45800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>53400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>44700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>46100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>38900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>43100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>40500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>389700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>390400</v>
+      </c>
+      <c r="F61" s="3">
         <v>391000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>391500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>324300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>323300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>330200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>325600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>345400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>372300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>366800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>362200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>350400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>320200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>314100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>320500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>318900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>317700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>306600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>306700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>303600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>300400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>314000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>277900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1492200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1446600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1421400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1399600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1371000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1328500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1304800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1284900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1231500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1292500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1345100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1348100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1339300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1293600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1337300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1323600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1301900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1300900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1302600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1295100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1291400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1257400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1275500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1231900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>1187300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1943000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1886900</v>
+      </c>
+      <c r="F66" s="3">
         <v>1872700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1843600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1773600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1727400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1713600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1685800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1681500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1821900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1777000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1766300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1756300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1675700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1714400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1700100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1682700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1664400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1662600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1646500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1641100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1596700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1632600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1550300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1545200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4873,52 +5208,58 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>52500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>52900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>-4200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>-4000</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>-3600</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>-3400</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>-3000</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>-2500</v>
       </c>
-      <c r="U70" s="3">
+      <c r="W70" s="3">
         <v>-2400</v>
       </c>
-      <c r="V70" s="3">
+      <c r="X70" s="3">
         <v>-2100</v>
       </c>
-      <c r="W70" s="3">
+      <c r="Y70" s="3">
         <v>-1900</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Z70" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>-600</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AB70" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,37 +5332,43 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-53200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-48400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>5100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>9000</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
@@ -5035,11 +5382,11 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -5065,8 +5412,14 @@
       <c r="Z72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-157500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-145700</v>
+      </c>
+      <c r="F76" s="3">
         <v>-135700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-131400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-96500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-92400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-87200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-79700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-93100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-102500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-99000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-56300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-24600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>17300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>34200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>49300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>94700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>139200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>148500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>172300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>192300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>163800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>196500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>171900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-35400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-4600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-8400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-153000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-42200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-34000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-22300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-20300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-16800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-17700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-45000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-9500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-11500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-8500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +6011,90 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E83" s="3">
         <v>2000</v>
       </c>
       <c r="F83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="3">
         <v>2100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>9400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>2300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>3100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>3000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>3200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>3200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>3400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>3500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>3800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>2900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>3200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F89" s="3">
         <v>12000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>4600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-38000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-18500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-13100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>7000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>4000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>9300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>6200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-9700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>9200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>3100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>12400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>4300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>10000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>3200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6601,90 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-6400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-4400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-2800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-4600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>7900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6837,94 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>5000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>51000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>18400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>26100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-1900</v>
       </c>
       <c r="O94" s="3">
         <v>-1700</v>
       </c>
       <c r="P94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R94" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-5200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-4400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6951,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6543,25 +7010,31 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-12700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-11900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-11100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-23400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-23300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7267,94 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>42900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>2300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-49000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-8800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-30200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>76800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>57700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>21300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>10100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-3200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-9100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-9700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-6500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>7300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F102" s="3">
         <v>9000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>41700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>3300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>16100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-9300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>38600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>37500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>10100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>4600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>1600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-6900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-3000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>6200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/STON_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>STON</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E8" s="3">
         <v>81000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>79300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>82300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>83000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>78300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>279500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>76900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>66600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>65100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>257200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>73200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>78500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>83400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>73200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>81600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>77900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>85300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>84000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>86000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>82900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>92500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>80800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>79000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>78200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E9" s="3">
         <v>17900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>23900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>17600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>17500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>64100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>17400</v>
-      </c>
-      <c r="K9" s="3">
-        <v>15100</v>
       </c>
       <c r="L9" s="3">
         <v>15100</v>
       </c>
       <c r="M9" s="3">
+        <v>15100</v>
+      </c>
+      <c r="N9" s="3">
         <v>60000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>17900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>17300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>17600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>22500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>19700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>19800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>21400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>22700</v>
-      </c>
-      <c r="V9" s="3">
-        <v>19100</v>
       </c>
       <c r="W9" s="3">
         <v>19100</v>
       </c>
       <c r="X9" s="3">
+        <v>19100</v>
+      </c>
+      <c r="Y9" s="3">
         <v>21000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>19100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>20100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>20000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>19300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E10" s="3">
         <v>63100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>64700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>60800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>215400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>59500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>197200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>53900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>53500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>61800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>56500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>62600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>64900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>66900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>61900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>73400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>60700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>59000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>58900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,29 +1223,32 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>42300</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
@@ -1236,49 +1256,49 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-24100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>33300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>24900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8500</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3200</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-5000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>44700</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-400</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1500</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
@@ -1286,16 +1306,19 @@
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2000</v>
       </c>
       <c r="F15" s="3">
         <v>2000</v>
@@ -1304,13 +1327,13 @@
         <v>2000</v>
       </c>
       <c r="H15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="3">
         <v>2100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2300</v>
       </c>
       <c r="K15" s="3">
         <v>2300</v>
@@ -1319,55 +1342,58 @@
         <v>2300</v>
       </c>
       <c r="M15" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N15" s="3">
         <v>10200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3000</v>
-      </c>
-      <c r="U15" s="3">
-        <v>3200</v>
       </c>
       <c r="V15" s="3">
         <v>3200</v>
       </c>
       <c r="W15" s="3">
+        <v>3200</v>
+      </c>
+      <c r="X15" s="3">
         <v>3400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3800</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>2900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3200</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E17" s="3">
         <v>83700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>87000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>77400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>119100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>74700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>276300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>73600</v>
-      </c>
-      <c r="K17" s="3">
-        <v>67200</v>
       </c>
       <c r="L17" s="3">
         <v>67200</v>
       </c>
       <c r="M17" s="3">
+        <v>67200</v>
+      </c>
+      <c r="N17" s="3">
         <v>330600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>104500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>93700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>80800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>92200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>83200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>90300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>81000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>134200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>86400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>88700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>84000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>88700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>84500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>80700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>77600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-36100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-73400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-31300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-48900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,23 +1626,23 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1616,135 +1650,141 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-7900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-10200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>1600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-6200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>6300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-34000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-70500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-28800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-9700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-10200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-47000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>9100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1758,153 +1798,159 @@
         <v>9300</v>
       </c>
       <c r="G22" s="3">
+        <v>9300</v>
+      </c>
+      <c r="H22" s="3">
         <v>10000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>10500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>45500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>12200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>45200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>9300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>7700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>7600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>7100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>7000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>6900</v>
-      </c>
-      <c r="W22" s="3">
-        <v>6700</v>
       </c>
       <c r="X22" s="3">
         <v>6700</v>
       </c>
       <c r="Y22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="Z22" s="3">
         <v>7100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-17500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-46000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-42200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-126500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-44200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-28000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-16800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-20300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-57100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-10900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-6100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,79 +1958,82 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>-6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-9700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-4900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>28200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6400</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-5200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-36200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-37300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-14800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-154700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-42700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-34400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-23600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-17900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-51900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-11600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-9900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-8100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-36200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-37300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-155700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-42200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-34000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-23400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-17700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-51500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-9800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2312,34 +2373,34 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-100</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>900</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>29000</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>4900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>23800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>2800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2347,11 +2408,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>3100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2359,11 +2420,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>6500</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,23 +2622,23 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2576,135 +2646,141 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>7900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>10200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-153000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-42200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-34000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-17700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-45000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-9800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-153000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-42200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-34000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-17700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-45000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-9800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3094,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E41" s="3">
         <v>74200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>83900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>99500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>90400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>39200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>42900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>34900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>43500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>41900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>18100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>13700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>12600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>15600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>9400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>13500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,88 +3258,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E43" s="3">
         <v>64300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>62200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>58700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>58900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>58000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>56000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>55500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>54000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>61500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>59600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>58400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>57900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>64200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>66800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>71500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>79100</v>
-      </c>
-      <c r="V43" s="3">
-        <v>77100</v>
       </c>
       <c r="W43" s="3">
         <v>77100</v>
       </c>
       <c r="X43" s="3">
+        <v>77100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>76400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>77300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>75300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>74200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>69700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,408 +3424,426 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E45" s="3">
         <v>43200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>72000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>71600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>72300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>71000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>180100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>44400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>46300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>27300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>30300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>27000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>33600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>31800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>27800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>29000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>33600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>28900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>30100</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E46" s="3">
         <v>181700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>180900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>187700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>179600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>168700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>174300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>169800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>201100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>269000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>149300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>147700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>110100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>98300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>101600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>110300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>112200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>113000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>119200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>115700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>118000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>118800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>124500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>112500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>113300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1030700</v>
+      </c>
+      <c r="E47" s="3">
         <v>1007400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>979300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>959700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>947800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>919800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>889000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>860400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>843800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>793900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>864400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>940700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>946500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>943500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>906000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>954800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>947600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>945100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>961300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>951900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>950800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>964200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>939700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>937500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>911400</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>885300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>390500</v>
+        <v>394300</v>
       </c>
       <c r="E48" s="3">
+        <v>396200</v>
+      </c>
+      <c r="F48" s="3">
         <v>385300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>382500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>384200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>386300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>388200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>401100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>403700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>405900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>402700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>448900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>452000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>454800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>443600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>447400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>448300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>449000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>447500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>449300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>447500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>452200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>455600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>455400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>448600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>450400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E49" s="3">
         <v>57200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>54000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>54300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>54600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>54800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>55100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>55400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>55700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>55900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>56200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>56600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>81700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>84800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>86300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>86800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>87200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>87700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>88100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>134200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>134700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>135300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>135900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>136600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>136700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>136500</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4005,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>148700</v>
+        <v>145100</v>
       </c>
       <c r="E52" s="3">
+        <v>143000</v>
+      </c>
+      <c r="F52" s="3">
         <v>141600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>140100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>137900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>136600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>134000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>135300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>133100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>131600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>127100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>135000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>134900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>134300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>135000</v>
-      </c>
-      <c r="R52" s="3">
-        <v>137300</v>
       </c>
       <c r="S52" s="3">
         <v>137300</v>
       </c>
       <c r="T52" s="3">
+        <v>137300</v>
+      </c>
+      <c r="U52" s="3">
         <v>134500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>146200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>144800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>143900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>141600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>137000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>140100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>136900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>131400</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1798000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1785500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1741100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1736900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1712200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1677100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1635000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1626400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1606100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1588400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1719400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1730500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1762800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1727500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1669100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1727900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1730700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1728500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1756100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1799400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1792700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1811300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1787000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1794100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1746200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1716900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4318,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44300</v>
+        <v>53100</v>
       </c>
       <c r="E57" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F57" s="3">
         <v>41700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>43500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>46600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>46900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>51600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>61300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>51800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>54600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>59000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>56500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>51900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>53200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>43000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>47200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>39600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>39000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>35500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>35900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>33700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>33300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3900</v>
+        <v>4300</v>
       </c>
       <c r="E58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F58" s="3">
         <v>2600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12800</v>
+        <v>5500</v>
       </c>
       <c r="E59" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F59" s="3">
         <v>5400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>14300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>25300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>24700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>26700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>26200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>103900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E60" s="3">
         <v>61100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>49800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>60300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>52500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>78300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>78600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>75300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>104600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>157100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>65100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>56000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>66600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>61800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>63000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>56000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>61800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>45800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>53400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>44700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>46100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>38900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>43100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>40500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>39800</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>389700</v>
+        <v>390700</v>
       </c>
       <c r="E61" s="3">
+        <v>390600</v>
+      </c>
+      <c r="F61" s="3">
         <v>390400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>391000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>391500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>324300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>323300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>330200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>325600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>345400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>372300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>366800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>362200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>350400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>320200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>314100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>320500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>318900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>317700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>306600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>306700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>303600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>300400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>314000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>277900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>318100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1492200</v>
+        <v>1519100</v>
       </c>
       <c r="E62" s="3">
+        <v>1491300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1446600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1421400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1399600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1371000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1328500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1304800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1284900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1231500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1292500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1345100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1348100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1339300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1293600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1337300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1323600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1301900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1300900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1302600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1295100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1291400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1257400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1275500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1231900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1187300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1972700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1943000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1886900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1872700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1843600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1773600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1727400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1713600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1685800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1681500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1821900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1777000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1766300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1756300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1675700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1714400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1700100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1682700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1664400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1662600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1646500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1641100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1596700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1632600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1550300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1545200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5214,52 +5382,55 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>52500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>52900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>-4000</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>-3800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>-3600</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>-3400</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>-3000</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>-2500</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>-2400</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="Z70" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AA70" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA70" s="3">
+      <c r="AB70" s="3">
         <v>-600</v>
       </c>
-      <c r="AB70" s="3">
+      <c r="AC70" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,40 +5509,43 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-93100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-75900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9000</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
@@ -5388,8 +5562,8 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S72" s="3">
-        <v>0</v>
+      <c r="S72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T72" s="3">
         <v>0</v>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-174700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-157500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-145700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-135700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-131400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-96500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-92400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-87200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-79700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-93100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-102500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-99000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-56300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-24600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>49300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>94700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>139200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>148500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>172300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>192300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>163800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>196500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>171900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42460</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-153000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-42200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-34000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-17700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-45000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-9800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,16 +6211,17 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>2000</v>
       </c>
       <c r="F83" s="3">
         <v>2000</v>
@@ -6031,70 +6230,73 @@
         <v>2000</v>
       </c>
       <c r="H83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I83" s="3">
         <v>2100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2300</v>
       </c>
       <c r="K83" s="3">
         <v>2300</v>
       </c>
       <c r="L83" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M83" s="3">
         <v>2500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>3100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>3000</v>
-      </c>
-      <c r="U83" s="3">
-        <v>3200</v>
       </c>
       <c r="V83" s="3">
         <v>3200</v>
       </c>
       <c r="W83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="X83" s="3">
         <v>3400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>3500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>3800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>3200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E89" s="3">
         <v>8800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-38000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-18500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>7000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-9700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>12400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>4300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>10000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-4400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-4600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>7900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-20900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>51000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>18400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>26100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-5200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-4400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-4400</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7016,25 +7250,28 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-12700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-11900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-23400</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-23300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-21400</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>42900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-49000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-30200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>76800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>57700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>10100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-9700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>7300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>41700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>38600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>37500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>6200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1700</v>
       </c>
     </row>
